--- a/biology/Botanique/Liste_de_jardins_botaniques/Liste_de_jardins_botaniques.xlsx
+++ b/biology/Botanique/Liste_de_jardins_botaniques/Liste_de_jardins_botaniques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des jardins botaniques dans le monde :
 </t>
@@ -511,7 +523,9 @@
           <t>Argentine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jardín Botánico Carlos Thays, Buenos Aires</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Afrique du Sud</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jardin botanique national Harold Porter, Betty's Bay (Harold Porter National Botanical Garden)
 Jardin botanique national Free State, Bloemfontein (Free State National Botanical Garden)
@@ -580,7 +596,9 @@
           <t>Algérie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jardin d'essai du Hamma (Jardin botanique d'Alger)</t>
         </is>
@@ -610,7 +628,9 @@
           <t>Allemagne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jardin botanique de Berlin (Botanischer Garten Berlin-Dahlem)
 Jardin botanique de l'Université de Bonn (Botanische Gärten der Rheinischen Friedrich-Wilhelms-Universität Bonn)
@@ -660,7 +680,9 @@
           <t>Arménie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jardin botanique d'Erevan (Vanadzor et Sevan)</t>
         </is>
@@ -690,7 +712,9 @@
           <t>Australie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Jardin botanique d'Adélaïde (Adelaide Botanic Garden)
 Jardin botanique Wittunga, Blackwood (Wittunga Botanic Garden)
@@ -732,7 +756,9 @@
           <t>Autriche</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université de Graz (Botanischer Garten und Institut für Botanik Graz)
 Jardin botanique de l'Université d'Innsbruck
@@ -766,7 +792,9 @@
           <t>Barbade</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Jardin botanique Andromeda, Saint Joseph (Andromeda Botanic Gardens)</t>
         </is>
@@ -796,9 +824,11 @@
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Observatoire du Monde des Plantes Liège ([1])
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Observatoire du Monde des Plantes Liège ()
 Jardin botanique de Meise (auparavant : Jardin botanique national de Belgique) (Site), Meise
 Jardin botanique de Bruxelles (ancien, actuellement centre culturel)
 Jardin botanique Jean Massart (Site), Bruxelles
@@ -833,7 +863,9 @@
           <t>Bénin</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jardin des plantes et de la nature de Porto-Novo (L'ancêtre du Jardin des Plantes et de la Nature. c'est la forêt sacrée du royaume de Porto-Novo);
 Jardin botanique et zoologique de l'université d'Abomey-Calavi (Situé au cœur de l’Université d’Abomey-Calavi, il  a été créé en 1970 par Édouard Adjanohoun )</t>
@@ -864,7 +896,9 @@
           <t>Birmanie</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Jardin botanique de Kandawgyi (Pyin U Lwin)</t>
         </is>
@@ -894,7 +928,9 @@
           <t>Bolivie</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Jardin botanique de Santa Cruz de la Sierra</t>
         </is>
@@ -924,7 +960,9 @@
           <t>Brésil</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Jardin botanique de Rio de Janeiro (Jardim Botânico do Rio de Janeiro)
 Jardin botanique de São Paulo</t>
@@ -955,7 +993,9 @@
           <t>Cameroun</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Jardin botanique de Limbé</t>
         </is>
@@ -985,7 +1025,9 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université d'Alberta (Devonian Botanic Garden)
 Jardin botanique de Fredricton (Fredricton Botanic Garden)
@@ -1026,10 +1068,12 @@
           <t>Colombie</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Jardín Botánico del Pacífico, Chocó [2]
-Jardín Botánico del Quindío[3]</t>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Jardín Botánico del Pacífico, Chocó 
+Jardín Botánico del Quindío</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1101,9 @@
           <t>Chine</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Jardin botanique tropical XingLong, Hainan
 Jardin botanique de la Chine du Sud, Longdong
@@ -1091,7 +1137,9 @@
           <t>République démocratique du Congo</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Jardin botanique de Kisantu</t>
         </is>
@@ -1121,7 +1169,9 @@
           <t>Corée du Sud</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Bunjaeartpia, île de Jejudo.
 Ilchulland, île de Jejudo.
@@ -1155,7 +1205,9 @@
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Jardin botanique Wilson, Las Cruces
 Jardin botanique Lankester, Cartago
@@ -1187,7 +1239,9 @@
           <t>Croatie</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Jardin botanique de Zagreb (Zagreb Botanièki Vrt)</t>
         </is>
@@ -1217,7 +1271,9 @@
           <t>Danemark</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Jardin Botanique Forestier d'Århus (Forstbotanisk Have (Aarhus))
 Jardin Botanique Forestier de Charlottenlund (Forstbotanisk Have (Charlottenlund))
@@ -1250,7 +1306,9 @@
           <t>Espagne</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université d'Alcala (Jardín Botánico Juan Carlos I, Universidad de Alcalá)
 Jardin botanique de Barcelone " toutes les Méditerranées du monde"
@@ -1296,7 +1354,9 @@
           <t>Estonie</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Jardin botanique de Tallinn
 Jardin botanique de l'Université de Tartu</t>
@@ -1328,6 +1388,8 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1353,7 +1415,9 @@
           <t>Finlande</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Jardin botanique de l'université d'Helsinki (Helsingin yliopiston kasvitieteellinen puutarha)
 Jardin botanique de l'université d'Oulu (Oulun yliopiston kasvitieteellinen puutarha)
@@ -1387,6 +1451,8 @@
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1412,7 +1478,9 @@
           <t>Géorgie</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Jardin botanique de Batoum
 Jardin botanique de Tbilissi</t>
@@ -1443,7 +1511,9 @@
           <t>Grèce</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Jardin national d'Athènes</t>
         </is>
@@ -1473,7 +1543,9 @@
           <t>Honduras</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Jardin botanique Lancetilla, Tela</t>
         </is>
@@ -1503,7 +1575,9 @@
           <t>Hongrie</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Jardin de simples de Budapest (Füvészkert)
 Jardin botanique de Soroksár (Soroksári Botanikus Kert)
@@ -1536,7 +1610,9 @@
           <t>Inde</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Assam
 Jardin botanique de Guwahati (Assam State Zoo cum Botanical Garden)
@@ -1587,7 +1663,9 @@
           <t>Islande</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Jardin botanique de Reykjavik</t>
         </is>
@@ -1617,7 +1695,9 @@
           <t>Israël</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Jardin botanique de Jérusalem
 Jardin botanique de l'Université de Tel-Aviv</t>
@@ -1649,6 +1729,8 @@
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1674,7 +1756,9 @@
           <t>Japon</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>Jardin botanique de Fukuoka
 Jardin botanique d'Hakone
@@ -1711,7 +1795,9 @@
           <t>Lituanie</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>Arboretum de Dubrava (Dubravos arboretumas)
 Jardin botanique de Kaunas (Kauno botanikos sodas)
@@ -1744,7 +1830,9 @@
           <t>Lettonie</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t>Arboretum de Kalsnava (Kalsnavas arborētums)
 Jardin Botanique National de Lettonie (Nacionālais botāniskais dārzs)
@@ -1776,7 +1864,9 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t>Arboretum du Kirchberg</t>
         </is>
@@ -1806,7 +1896,9 @@
           <t>Madagascar</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t>Parc botanique et zoologique de Tsimbazaza, Tananarive</t>
         </is>
@@ -1836,7 +1928,9 @@
           <t>Malte</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Jardin botanique Saint-Antoine (Ġnien botaniku ta' Sant'Anton, St. Anton Gardens )</t>
         </is>
@@ -1866,7 +1960,9 @@
           <t>Maroc</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t>Jardin botanique de Rabat, Rabat
 Jardin Majorelle, Marrakech
@@ -1899,7 +1995,9 @@
           <t>Maurice</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t>Jardin botanique de Curepipe
 Jardin botanique de Pamplemousses</t>
@@ -1930,7 +2028,9 @@
           <t>Mexique</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université autonome du Mexique (Jardín Botánico de la Universidad Nacional Autónoma de México)
 Jardin botanique de Culiacan (Jardín Botánico de Culiacán)
@@ -1963,7 +2063,9 @@
           <t>Moldavie</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Jardin botanique de Chisinau</t>
         </is>
@@ -1993,7 +2095,9 @@
           <t>Monaco</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t>Jardin exotique de Monaco</t>
         </is>
@@ -2023,7 +2127,9 @@
           <t>Norvège</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t>Jardin botanique de l'université d'Oslo
 Jardin botanique de l'université de Tromsø
@@ -2055,7 +2161,9 @@
           <t>Nouvelle-Zélande</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
         <is>
           <t>Jardin botanique d'Auckland (Auckland Botanic Gardens)
 Jardin botanique de Christchurch (Christchurch Botanic Gardens)
@@ -2088,7 +2196,9 @@
           <t>Pays-Bas</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t>Jardin botanique d'Amsterdam (Hortus Botanicus Amsterdam)
 Jardin botanique de l'Université de Leyde (Hortus Botanicus Leiden)
@@ -2122,6 +2232,8 @@
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2147,7 +2259,9 @@
           <t>Pologne</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>Jardin botanique de Bydgoszcz, Bydgoszcz
 Jardin botanique de Oliwie, Gdańsk
@@ -2186,7 +2300,9 @@
           <t>Porto Rico</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t>Jardin botanique national de Porto Rico (Jardín Botánico Nacional de Puerto Rico)</t>
         </is>
@@ -2216,7 +2332,9 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
         <is>
           <t>Jardin botanique de Coimbra
 Jardin botanique de Madère
@@ -2248,17 +2366,19 @@
           <t>Roumanie</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Jardin botanique de Bucarest [4]    [5]
-Jardin botanique de Iasi [6]
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardin botanique de Bucarest     
+Jardin botanique de Iasi 
 Jardin botanique de Cluj
 Jardin botanique de Târgu Mureş
-Jardin botanique de Arad [7]
+Jardin botanique de Arad 
 Jardin botanique de Craiova
 Jardin botanique de Galatzi
 Jardin botanique de Tulcea
-Jardin botanique de Jibou [8]</t>
+Jardin botanique de Jibou </t>
         </is>
       </c>
     </row>
@@ -2286,26 +2406,28 @@
           <t>République tchèque</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Brno, Botanická zahrada a arboretum Mendelovy zemědělské a lesnické univerzity v Brně [9]
-Brno, Botanická zahrada Přírodovědecké fakulty Masarykovy univerzity v Brně [10]
-Hradec Králové, Botanická zahrada léčivých rostlin Farmaceutické fakulty UK [11]
-Kostelec nad Černými lesy, Arboretum České zemědělské univerzity v Praze [12]
-Liberec, Botanická zahrada Liberec [13]
-Olomouc, Botanická zahrada Univerzity Palackého [14]
-Olomouc, Výstaviště Flora Olomouc [15]
-Ostrava, Botanická zahrada Přírodovědecké fakulty Ostravské univerzity [16]
-Plzeň, Zoologická a botanická zahrada [17]
-Plzeň, Arboretum Sofronka VÚLHM [18]
-Prague 2, Na Slupi, Botanická zahrada Univerzity Karlovy, Přírodovědecká fakulta UK [19]
-Prague 8, Troja, Botanická zahrada města Prahy [20]
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brno, Botanická zahrada a arboretum Mendelovy zemědělské a lesnické univerzity v Brně 
+Brno, Botanická zahrada Přírodovědecké fakulty Masarykovy univerzity v Brně 
+Hradec Králové, Botanická zahrada léčivých rostlin Farmaceutické fakulty UK 
+Kostelec nad Černými lesy, Arboretum České zemědělské univerzity v Praze 
+Liberec, Botanická zahrada Liberec 
+Olomouc, Botanická zahrada Univerzity Palackého 
+Olomouc, Výstaviště Flora Olomouc 
+Ostrava, Botanická zahrada Přírodovědecké fakulty Ostravské univerzity 
+Plzeň, Zoologická a botanická zahrada 
+Plzeň, Arboretum Sofronka VÚLHM 
+Prague 2, Na Slupi, Botanická zahrada Univerzity Karlovy, Přírodovědecká fakulta UK 
+Prague 8, Troja, Botanická zahrada města Prahy 
 Prague 9, Malešice Botanická zahrada Malešice
-Průhonice, Botanický ústav AV ČR [21]
-Průhonice, Jardin dendrologique de Průhonice (en tchèque : Dendrologická zahrada Výzkumný ústav Silva Taroucy pro krajinu a okrasné zahradnictví) [22]
-Rakovník, Botanická zahrada při SZeŠ [23]
-Tábor, Botanická zahrada při VOŠ a SZeŠ [24]
-Teplice, Botanická zahrada města Teplice [25]</t>
+Průhonice, Botanický ústav AV ČR 
+Průhonice, Jardin dendrologique de Průhonice (en tchèque : Dendrologická zahrada Výzkumný ústav Silva Taroucy pro krajinu a okrasné zahradnictví) 
+Rakovník, Botanická zahrada při SZeŠ 
+Tábor, Botanická zahrada při VOŠ a SZeŠ 
+Teplice, Botanická zahrada města Teplice </t>
         </is>
       </c>
     </row>
@@ -2334,6 +2456,8 @@
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2359,7 +2483,9 @@
           <t>Russie</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université d'Irkoutsk
 Jardin zoobotanique de Kazan
@@ -2399,7 +2525,9 @@
           <t>Saint-Vincent-et-les Grenadines</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t>Jardin botanique de Saint-Vincent, Kingstown</t>
         </is>
@@ -2429,7 +2557,9 @@
           <t>Sao Tomé-et-Principe</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t>Jardin botanique de Bom Sucesso</t>
         </is>
@@ -2459,7 +2589,9 @@
           <t>Singapour</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t>Jardin botanique de Singapour (Singapore Botanic Gardens)</t>
         </is>
@@ -2489,7 +2621,9 @@
           <t>Slovaquie</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t>Jardin botanique UK Bratislava (Botanická záhrada UK Bratislava)
 Jardin botanique (Banska Stiavnica) (Botanická zahrada, Banská Štiavnica)
@@ -2522,7 +2656,9 @@
           <t>Slovénie</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université de Ljubljana (Botanicni vrt Univerze v Ljubljani)</t>
         </is>
@@ -2552,7 +2688,9 @@
           <t>Sri Lanka</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>Jardin botanique de Peradeniya, Kandy (Peradeniya Botanical Garden)
 Jardin botanique de Hakgala, Nuwara Eliya (Hakgala Botanical Garden)</t>
@@ -2583,13 +2721,15 @@
           <t>Suède</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
         <is>
           <t>Jardin botanique Bergius, Stockholm (Bergianska trädgården)
 Jardin botanique de Lund (Botaniska trädgården, Lunds Universitet)
 Jardin botanique de l'Université d'Uppsala (Botaniska trädgården Uppsala Universitet)
 Jardin botanique de Göteborg (Göteborgs botaniska trädgård)
-Jardin des connaissances de l'Université suédoise des sciences agricoles (SLU Kunskapsparken)[1], Université suédoise des sciences agricoles, Uppsala</t>
+Jardin des connaissances de l'Université suédoise des sciences agricoles (SLU Kunskapsparken), Université suédoise des sciences agricoles, Uppsala</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2757,9 @@
           <t>Suisse</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
         <is>
           <t>Hortus Botanicus Helveticus – Association des jardins et collections botaniques suisses
 Arboretum
@@ -2644,7 +2786,7 @@
 Jardin botanique alpin de Meyrin (GE)
 Jardin des plantes médicinales Gentiana de Leysin (VD)
 Jardin botanique alpin La Rambertia des Rochers-de-Naye (Montreux VD)
-Jardin botanique, Alpinum Schatzalp (Davos - GR) (Botanischer Garten Alpinum Schatzalp)[2]
+Jardin botanique, Alpinum Schatzalp (Davos - GR) (Botanischer Garten Alpinum Schatzalp)
 Jardin alpin Les Tussilages des Diablerets (VD)
 Jardin alpin Schynige Platte (BE) (Alpengarten Schynige Platte)
 Jardin alpin La Thomasia du Pont-de-Nant (VD, Musée et jardins botaniques cantonaux de Lausanne)
@@ -2676,7 +2818,9 @@
           <t>Taïwan</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t>Jardin botanique de Taipei</t>
         </is>
@@ -2706,7 +2850,9 @@
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
         <is>
           <t>Jardin botanique Nikitski, Nikita (Crimée)
 Jardin botanique d'Odessa, Odessa, (Oblast d'Odessa)</t>
@@ -2737,7 +2883,9 @@
           <t>Venezuela</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université centrale du Venezuela, Caracas (Jardín Botánico de la Universidad Central de Venezuela)</t>
         </is>
